--- a/US/data/BTS/TRPT/Flights_US.xlsx
+++ b/US/data/BTS/TRPT/Flights_US.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4404,13 +4404,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>435302</v>
+        <v>441615</v>
       </c>
       <c r="D234" t="n">
-        <v>18142</v>
+        <v>18295</v>
       </c>
       <c r="E234" t="n">
-        <v>453444</v>
+        <v>459910</v>
       </c>
     </row>
     <row r="235">
@@ -4489,13 +4489,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5162358</v>
+        <v>5168671</v>
       </c>
       <c r="D239" t="n">
-        <v>348096</v>
+        <v>348249</v>
       </c>
       <c r="E239" t="n">
-        <v>5510454</v>
+        <v>5516920</v>
       </c>
     </row>
     <row r="240">
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>446513</v>
+        <v>408807</v>
       </c>
       <c r="D240" t="n">
-        <v>45030</v>
+        <v>40455</v>
       </c>
       <c r="E240" t="n">
-        <v>491543</v>
+        <v>449262</v>
       </c>
     </row>
     <row r="241">
@@ -4593,13 +4593,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>617719</v>
+        <v>617735</v>
       </c>
       <c r="D245" t="n">
         <v>48831</v>
       </c>
       <c r="E245" t="n">
-        <v>666550</v>
+        <v>666566</v>
       </c>
     </row>
     <row r="246">
@@ -4610,13 +4610,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>667452</v>
+        <v>664364</v>
       </c>
       <c r="D246" t="n">
         <v>52663</v>
       </c>
       <c r="E246" t="n">
-        <v>720115</v>
+        <v>717027</v>
       </c>
     </row>
     <row r="247">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>660465</v>
+        <v>661928</v>
       </c>
       <c r="D247" t="n">
-        <v>50582</v>
+        <v>50664</v>
       </c>
       <c r="E247" t="n">
-        <v>711047</v>
+        <v>712592</v>
       </c>
     </row>
     <row r="248">
@@ -4644,13 +4644,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>608893</v>
+        <v>610221</v>
       </c>
       <c r="D248" t="n">
-        <v>43702</v>
+        <v>43758</v>
       </c>
       <c r="E248" t="n">
-        <v>652595</v>
+        <v>653979</v>
       </c>
     </row>
     <row r="249">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>628796</v>
+        <v>630149</v>
       </c>
       <c r="D249" t="n">
         <v>47139</v>
       </c>
       <c r="E249" t="n">
-        <v>675935</v>
+        <v>677288</v>
       </c>
     </row>
     <row r="250">
@@ -4678,13 +4678,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>616337</v>
+        <v>617735</v>
       </c>
       <c r="D250" t="n">
         <v>50706</v>
       </c>
       <c r="E250" t="n">
-        <v>667043</v>
+        <v>668441</v>
       </c>
     </row>
     <row r="251">
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>604038</v>
+        <v>605848</v>
       </c>
       <c r="D251" t="n">
         <v>59708</v>
       </c>
       <c r="E251" t="n">
-        <v>663746</v>
+        <v>665556</v>
       </c>
     </row>
     <row r="252">
@@ -4712,17 +4712,87 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6791315</v>
+        <v>6757889</v>
       </c>
       <c r="D252" t="n">
-        <v>561131</v>
+        <v>556694</v>
       </c>
       <c r="E252" t="n">
-        <v>7352446</v>
+        <v>7314583</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>569261</v>
+      </c>
+      <c r="D253" t="n">
+        <v>59035</v>
+      </c>
+      <c r="E253" t="n">
+        <v>628296</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>532523</v>
+      </c>
+      <c r="D254" t="n">
+        <v>52666</v>
+      </c>
+      <c r="E254" t="n">
+        <v>585189</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>625650</v>
+      </c>
+      <c r="D255" t="n">
+        <v>62309</v>
+      </c>
+      <c r="E255" t="n">
+        <v>687959</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1727434</v>
+      </c>
+      <c r="D256" t="n">
+        <v>174010</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1901444</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A19:A31"/>
@@ -4743,6 +4813,7 @@
     <mergeCell ref="A214:A226"/>
     <mergeCell ref="A227:A239"/>
     <mergeCell ref="A240:A252"/>
+    <mergeCell ref="A253:A256"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
